--- a/document/ascii.xlsx
+++ b/document/ascii.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95BEBC-5F31-4C1F-9A9F-48F147A413C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
-  <si>
-    <t>标准表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>Bin(二进制)</t>
   </si>
@@ -1068,7 +1066,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1386,11 +1384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1407,982 +1406,997 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B38">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B40">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B42">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B44">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>41</v>
-      </c>
-      <c r="D44">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B45">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B46">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B47">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B48">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>161</v>
+      <c r="A49">
+        <v>101111</v>
       </c>
       <c r="B49">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>101111</v>
+        <v>110000</v>
       </c>
       <c r="B50">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C50">
-        <v>47</v>
-      </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>166</v>
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>167</v>
@@ -2390,19 +2404,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>110000</v>
+        <v>110001</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>168</v>
@@ -2410,19 +2424,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>110001</v>
+        <v>110010</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>169</v>
@@ -2430,19 +2444,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>110010</v>
+        <v>110011</v>
       </c>
       <c r="B53">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>170</v>
@@ -2450,19 +2464,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>110011</v>
+        <v>110100</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>171</v>
@@ -2470,19 +2484,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>110100</v>
+        <v>110101</v>
       </c>
       <c r="B55">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
         <v>172</v>
@@ -2490,19 +2504,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>110101</v>
+        <v>110110</v>
       </c>
       <c r="B56">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
         <v>173</v>
@@ -2510,19 +2524,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>110110</v>
+        <v>110111</v>
       </c>
       <c r="B57">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
         <v>174</v>
@@ -2530,19 +2544,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>110111</v>
+        <v>111000</v>
       </c>
       <c r="B58">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
         <v>175</v>
@@ -2550,19 +2564,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>111000</v>
+        <v>111001</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>176</v>
@@ -2570,1422 +2584,1402 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>111001</v>
+        <v>111010</v>
       </c>
       <c r="B60">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60">
-        <v>57</v>
-      </c>
-      <c r="D60">
-        <v>39</v>
-      </c>
-      <c r="E60">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" t="s">
+        <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>111010</v>
+        <v>111011</v>
       </c>
       <c r="B61">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>111011</v>
+        <v>111100</v>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>111100</v>
+        <v>111101</v>
       </c>
       <c r="B63">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>111101</v>
+        <v>111110</v>
       </c>
       <c r="B64">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>111110</v>
+        <v>111111</v>
       </c>
       <c r="B65">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>111111</v>
+        <v>1000000</v>
       </c>
       <c r="B66">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C66">
-        <v>63</v>
-      </c>
-      <c r="D66" t="s">
-        <v>193</v>
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1000000</v>
+        <v>1000001</v>
       </c>
       <c r="B67">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1000001</v>
+        <v>1000010</v>
       </c>
       <c r="B68">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1000010</v>
+        <v>1000011</v>
       </c>
       <c r="B69">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D69">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1000011</v>
+        <v>1000100</v>
       </c>
       <c r="B70">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1000100</v>
+        <v>1000101</v>
       </c>
       <c r="B71">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D71">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1000101</v>
+        <v>1000110</v>
       </c>
       <c r="B72">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1000110</v>
+        <v>1000111</v>
       </c>
       <c r="B73">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D73">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1000111</v>
+        <v>1001000</v>
       </c>
       <c r="B74">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1001000</v>
+        <v>1001001</v>
       </c>
       <c r="B75">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D75">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1001001</v>
+        <v>1001010</v>
       </c>
       <c r="B76">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C76">
-        <v>73</v>
-      </c>
-      <c r="D76">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1001010</v>
+        <v>1001011</v>
       </c>
       <c r="B77">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C77">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F77" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1001011</v>
+        <v>1001100</v>
       </c>
       <c r="B78">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C78">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1001100</v>
+        <v>1001101</v>
       </c>
       <c r="B79">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1001101</v>
+        <v>1001110</v>
       </c>
       <c r="B80">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1001110</v>
+        <v>1001111</v>
       </c>
       <c r="B81">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1001111</v>
+        <v>1010000</v>
       </c>
       <c r="B82">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C82">
-        <v>79</v>
-      </c>
-      <c r="D82" t="s">
-        <v>231</v>
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1010000</v>
+        <v>1010001</v>
       </c>
       <c r="B83">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1010001</v>
+        <v>1010010</v>
       </c>
       <c r="B84">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D84">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1010010</v>
+        <v>1010011</v>
       </c>
       <c r="B85">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D85">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1010011</v>
+        <v>1010100</v>
       </c>
       <c r="B86">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D86">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1010100</v>
+        <v>1010101</v>
       </c>
       <c r="B87">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D87">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1010101</v>
+        <v>1010110</v>
       </c>
       <c r="B88">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D88">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1010110</v>
+        <v>1010111</v>
       </c>
       <c r="B89">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D89">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1010111</v>
+        <v>1011000</v>
       </c>
       <c r="B90">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D90">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1011000</v>
+        <v>1011001</v>
       </c>
       <c r="B91">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D91">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1011001</v>
+        <v>1011010</v>
       </c>
       <c r="B92">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92">
-        <v>89</v>
-      </c>
-      <c r="D92">
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>253</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1011010</v>
+        <v>1011011</v>
       </c>
       <c r="B93">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1011011</v>
+        <v>1011100</v>
       </c>
       <c r="B94">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1011100</v>
+        <v>1011101</v>
       </c>
       <c r="B95">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F95" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1011101</v>
+        <v>1011110</v>
       </c>
       <c r="B96">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E96" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F96" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1011110</v>
+        <v>1011111</v>
       </c>
       <c r="B97">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1011111</v>
+        <v>1100000</v>
       </c>
       <c r="B98">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C98">
-        <v>95</v>
-      </c>
-      <c r="D98" t="s">
-        <v>269</v>
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1100000</v>
+        <v>1100001</v>
       </c>
       <c r="B99">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D99">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1100001</v>
+        <v>1100010</v>
       </c>
       <c r="B100">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D100">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1100010</v>
+        <v>1100011</v>
       </c>
       <c r="B101">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C101">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D101">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1100011</v>
+        <v>1100100</v>
       </c>
       <c r="B102">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D102">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1100100</v>
+        <v>1100101</v>
       </c>
       <c r="B103">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C103">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D103">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1100101</v>
+        <v>1100110</v>
       </c>
       <c r="B104">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C104">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D104">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1100110</v>
+        <v>1100111</v>
       </c>
       <c r="B105">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D105">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1100111</v>
+        <v>1101000</v>
       </c>
       <c r="B106">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C106">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D106">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1101000</v>
+        <v>1101001</v>
       </c>
       <c r="B107">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D107">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1101001</v>
+        <v>1101010</v>
       </c>
       <c r="B108">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108">
-        <v>105</v>
-      </c>
-      <c r="D108">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>291</v>
       </c>
       <c r="E108" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F108" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1101010</v>
+        <v>1101011</v>
       </c>
       <c r="B109">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C109">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F109" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1101011</v>
+        <v>1101100</v>
       </c>
       <c r="B110">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C110">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E110" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F110" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1101100</v>
+        <v>1101101</v>
       </c>
       <c r="B111">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C111">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1101101</v>
+        <v>1101110</v>
       </c>
       <c r="B112">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C112">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E112" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F112" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1101110</v>
+        <v>1101111</v>
       </c>
       <c r="B113">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E113" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F113" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1101111</v>
+        <v>1110000</v>
       </c>
       <c r="B114">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C114">
-        <v>111</v>
-      </c>
-      <c r="D114" t="s">
-        <v>307</v>
+        <v>112</v>
+      </c>
+      <c r="D114">
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F114" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1110000</v>
+        <v>1110001</v>
       </c>
       <c r="B115">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D115">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1110001</v>
+        <v>1110010</v>
       </c>
       <c r="B116">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D116">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F116" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1110010</v>
+        <v>1110011</v>
       </c>
       <c r="B117">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D117">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E117" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1110011</v>
+        <v>1110100</v>
       </c>
       <c r="B118">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D118">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E118" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1110100</v>
+        <v>1110101</v>
       </c>
       <c r="B119">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D119">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E119" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1110101</v>
+        <v>1110110</v>
       </c>
       <c r="B120">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D120">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1110110</v>
+        <v>1110111</v>
       </c>
       <c r="B121">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D121">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E121" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F121" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1110111</v>
+        <v>1111000</v>
       </c>
       <c r="B122">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D122">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E122" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1111000</v>
+        <v>1111001</v>
       </c>
       <c r="B123">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C123">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1111001</v>
+        <v>1111010</v>
       </c>
       <c r="B124">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C124">
-        <v>121</v>
-      </c>
-      <c r="D124">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="D124" t="s">
+        <v>329</v>
       </c>
       <c r="E124" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1111010</v>
+        <v>1111011</v>
       </c>
       <c r="B125">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F125" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1111011</v>
+        <v>1111100</v>
       </c>
       <c r="B126">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C126">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E126" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F126" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1111100</v>
+        <v>1111101</v>
       </c>
       <c r="B127">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E127" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F127" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1111101</v>
+        <v>1111110</v>
       </c>
       <c r="B128">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E128" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F128" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1111110</v>
+        <v>1111111</v>
       </c>
       <c r="B129">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E129" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F129" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>1111111</v>
-      </c>
-      <c r="B130">
-        <v>177</v>
-      </c>
-      <c r="C130">
-        <v>127</v>
-      </c>
-      <c r="D130" t="s">
-        <v>345</v>
-      </c>
-      <c r="E130" t="s">
         <v>346</v>
-      </c>
-      <c r="F130" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
